--- a/MercuryTours/target/classes/datapool/datosLoginEdeq.xlsx
+++ b/MercuryTours/target/classes/datapool/datosLoginEdeq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12165" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Password</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>CAJEROS</t>
+  </si>
+  <si>
+    <t>444</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +461,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MercuryTours/target/classes/datapool/datosLoginEdeq.xlsx
+++ b/MercuryTours/target/classes/datapool/datosLoginEdeq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>CAJEROS</t>
   </si>
   <si>
-    <t>444</t>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
